--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/CLB_DN_MH_HTX_THT.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/CLB_DN_MH_HTX_THT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05344299-EE18-4A2A-9E1A-CB45843F1CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7840DA-098D-49AB-823F-D2545EEAEB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C10594-97B7-490C-A58A-C86816B68C1F}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -224,25 +224,6 @@
     </r>
   </si>
   <si>
-    <t>Nguyễn Kim Sơn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">079058027256
-</t>
-  </si>
-  <si>
-    <t>Chăn nuôi bò thịt</t>
-  </si>
-  <si>
-    <t>16/7 ấp 4</t>
-  </si>
-  <si>
-    <t>xã Xuân Thới Sơn</t>
-  </si>
-  <si>
-    <t>Hóc Môn</t>
-  </si>
-  <si>
     <t>Câu Lạc Bộ</t>
   </si>
   <si>
@@ -268,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,18 +308,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -392,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -418,29 +387,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4492A19E-36C7-4FA3-A76F-AEAF296971DF}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,10 +729,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -797,12 +745,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -846,19 +794,19 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>2</v>
@@ -872,41 +820,6 @@
       <c r="M5" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="16">
-        <v>8461</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/CLB_DN_MH_HTX_THT.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/CLB_DN_MH_HTX_THT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7840DA-098D-49AB-823F-D2545EEAEB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBCA2B-46EE-4FDC-9F3B-61509E67DB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C10594-97B7-490C-A58A-C86816B68C1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3C10594-97B7-490C-A58A-C86816B68C1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/CLB_DN_MH_HTX_THT.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/CLB_DN_MH_HTX_THT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBCA2B-46EE-4FDC-9F3B-61509E67DB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B667B5-ECE7-4846-BB95-2F949DF382FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3C10594-97B7-490C-A58A-C86816B68C1F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Lý Quốc Cường</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{5F831D0E-EE2B-4A89-A307-39D80B00B343}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{5F831D0E-EE2B-4A89-A307-39D80B00B343}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{498E185C-EDFB-4239-86FF-24343B460C38}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{498E185C-EDFB-4239-86FF-24343B460C38}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{CB6C28AD-F75D-4F44-90E7-4361E7CED56A}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{CB6C28AD-F75D-4F44-90E7-4361E7CED56A}">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{0EFFC311-8805-4C7E-AF68-A6016A7999FA}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{0EFFC311-8805-4C7E-AF68-A6016A7999FA}">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{592315FC-5A96-4539-82F6-F1DCB89970BD}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{592315FC-5A96-4539-82F6-F1DCB89970BD}">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -164,31 +164,7 @@
     <t>Stt</t>
   </si>
   <si>
-    <t xml:space="preserve">Khu phố </t>
-  </si>
-  <si>
-    <t>phường</t>
-  </si>
-  <si>
     <t>Huyện, quận</t>
-  </si>
-  <si>
-    <t>Bắt buộc phải nhập</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số thẻ Hội viên </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -206,9 +182,6 @@
     </r>
   </si>
   <si>
-    <t>(*)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Họ tên hội viên </t>
     </r>
@@ -239,10 +212,33 @@
     <t>Tổ Hợp Tác</t>
   </si>
   <si>
-    <t>Danh Sách Tham Gia Câu Lạc Bộ, Đội Nhóm, Mô Hình, Hợp Tác Xã, Tổ Hợp Tác</t>
-  </si>
-  <si>
     <t>Tên đơn vị:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Bắt buộc phải nhập</t>
+    </r>
+  </si>
+  <si>
+    <t>Tên Hội</t>
+  </si>
+  <si>
+    <t>Nơi cư trú</t>
   </si>
 </sst>
 </file>
@@ -361,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,11 +382,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,125 +701,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4492A19E-36C7-4FA3-A76F-AEAF296971DF}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30" style="9" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="8" customWidth="1"/>
-    <col min="7" max="9" width="32.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="30" style="9" customWidth="1"/>
+    <col min="4" max="5" width="23.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="8" customWidth="1"/>
+    <col min="8" max="10" width="32.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="2"/>
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
